--- a/브랜딩_B33(기대효과).xlsx
+++ b/브랜딩_B33(기대효과).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="60" windowWidth="25515" windowHeight="11850" activeTab="2"/>
@@ -13,7 +13,7 @@
     <sheet name="시청각기록물 목록" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'수집기록물 목록'!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'수집기록물 목록'!$A$1:$W$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -892,19 +892,31 @@
   </si>
   <si>
     <t>1431052-e0001437-2017-B00033</t>
+  </si>
+  <si>
+    <t>사업기획</t>
+  </si>
+  <si>
+    <t>용역시행</t>
+  </si>
+  <si>
+    <t>용역계약</t>
+  </si>
+  <si>
+    <t>용역보고</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="#,##0\ &quot;Bytes&quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00\ &quot;MB&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;KB&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;Bytes&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;MB&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;KB&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,7 +991,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -988,7 +1000,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -996,13 +1008,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,6 +1031,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,18 +1063,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1106,6 +1131,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,6 +1238,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1232,6 +1273,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1407,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1510,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1685,11 +1727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P46" sqref="O46:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1706,9 +1748,12 @@
     <col min="11" max="12" width="17.85546875" style="17" customWidth="1"/>
     <col min="13" max="13" width="25.28515625" style="17" customWidth="1"/>
     <col min="14" max="14" width="18" style="17" customWidth="1"/>
+    <col min="15" max="15" width="34" style="18" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1">
+    <row r="1" spans="1:17" s="11" customFormat="1">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1751,8 +1796,17 @@
       <c r="N1" s="13" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" collapsed="1">
+      <c r="O1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" collapsed="1">
       <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
@@ -1778,8 +1832,17 @@
         <v>287</v>
       </c>
       <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" collapsed="1">
+      <c r="O2" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" collapsed="1">
       <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
@@ -1805,8 +1868,17 @@
         <v>287</v>
       </c>
       <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:14" collapsed="1">
+      <c r="O3" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" collapsed="1">
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
@@ -1835,8 +1907,17 @@
         <v>288</v>
       </c>
       <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" collapsed="1">
+      <c r="O4" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" collapsed="1">
       <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
@@ -1865,8 +1946,17 @@
         <v>288</v>
       </c>
       <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" collapsed="1">
+      <c r="O5" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" collapsed="1">
       <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
@@ -1895,8 +1985,17 @@
         <v>288</v>
       </c>
       <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" collapsed="1">
+      <c r="O6" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" collapsed="1">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
@@ -1925,8 +2024,17 @@
         <v>288</v>
       </c>
       <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" collapsed="1">
+      <c r="O7" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" collapsed="1">
       <c r="A8" s="21" t="s">
         <v>12</v>
       </c>
@@ -1952,8 +2060,17 @@
         <v>288</v>
       </c>
       <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" collapsed="1">
+      <c r="O8" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" collapsed="1">
       <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
@@ -1979,8 +2096,17 @@
         <v>288</v>
       </c>
       <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" collapsed="1">
+      <c r="O9" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" collapsed="1">
       <c r="A10" s="21" t="s">
         <v>14</v>
       </c>
@@ -2006,8 +2132,17 @@
         <v>288</v>
       </c>
       <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" collapsed="1">
+      <c r="O10" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" collapsed="1">
       <c r="A11" s="21" t="s">
         <v>15</v>
       </c>
@@ -2033,8 +2168,17 @@
         <v>288</v>
       </c>
       <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" collapsed="1">
+      <c r="O11" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" collapsed="1">
       <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
@@ -2063,8 +2207,17 @@
         <v>288</v>
       </c>
       <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" collapsed="1">
+      <c r="O12" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" collapsed="1">
       <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
@@ -2093,8 +2246,17 @@
         <v>288</v>
       </c>
       <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" collapsed="1">
+      <c r="O13" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" collapsed="1">
       <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
@@ -2120,8 +2282,17 @@
         <v>288</v>
       </c>
       <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" collapsed="1">
+      <c r="O14" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" collapsed="1">
       <c r="A15" s="21" t="s">
         <v>19</v>
       </c>
@@ -2150,8 +2321,17 @@
         <v>288</v>
       </c>
       <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" collapsed="1">
+      <c r="O15" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" collapsed="1">
       <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
@@ -2180,8 +2360,17 @@
         <v>288</v>
       </c>
       <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" collapsed="1">
+      <c r="O16" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" collapsed="1">
       <c r="A17" s="21" t="s">
         <v>22</v>
       </c>
@@ -2210,8 +2399,17 @@
         <v>288</v>
       </c>
       <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" collapsed="1">
+      <c r="O17" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" collapsed="1">
       <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2438,17 @@
         <v>288</v>
       </c>
       <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:14" collapsed="1">
+      <c r="O18" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" collapsed="1">
       <c r="A19" s="21" t="s">
         <v>24</v>
       </c>
@@ -2270,8 +2477,17 @@
         <v>288</v>
       </c>
       <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:14" collapsed="1">
+      <c r="O19" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" collapsed="1">
       <c r="A20" s="21" t="s">
         <v>25</v>
       </c>
@@ -2300,8 +2516,17 @@
         <v>288</v>
       </c>
       <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" collapsed="1">
+      <c r="O20" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" collapsed="1">
       <c r="A21" s="21" t="s">
         <v>26</v>
       </c>
@@ -2327,8 +2552,17 @@
         <v>288</v>
       </c>
       <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:14" collapsed="1">
+      <c r="O21" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" collapsed="1">
       <c r="A22" s="21" t="s">
         <v>27</v>
       </c>
@@ -2354,8 +2588,17 @@
         <v>288</v>
       </c>
       <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" collapsed="1">
+      <c r="O22" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" collapsed="1">
       <c r="A23" s="21" t="s">
         <v>28</v>
       </c>
@@ -2384,8 +2627,17 @@
         <v>288</v>
       </c>
       <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:14" collapsed="1">
+      <c r="O23" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" collapsed="1">
       <c r="A24" s="21" t="s">
         <v>29</v>
       </c>
@@ -2414,8 +2666,17 @@
         <v>288</v>
       </c>
       <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:14" collapsed="1">
+      <c r="O24" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" collapsed="1">
       <c r="A25" s="21" t="s">
         <v>31</v>
       </c>
@@ -2441,8 +2702,17 @@
         <v>288</v>
       </c>
       <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:14" collapsed="1">
+      <c r="O25" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" collapsed="1">
       <c r="A26" s="21" t="s">
         <v>32</v>
       </c>
@@ -2468,8 +2738,17 @@
         <v>288</v>
       </c>
       <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:14" collapsed="1">
+      <c r="O26" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" collapsed="1">
       <c r="A27" s="21" t="s">
         <v>34</v>
       </c>
@@ -2497,8 +2776,17 @@
       <c r="J27" s="18" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" collapsed="1">
+      <c r="O27" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q27" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" collapsed="1">
       <c r="A28" s="21" t="s">
         <v>35</v>
       </c>
@@ -2532,8 +2820,17 @@
       <c r="N28" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" collapsed="1">
+      <c r="O28" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" collapsed="1">
       <c r="A29" s="21" t="s">
         <v>37</v>
       </c>
@@ -2567,8 +2864,17 @@
       <c r="N29" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" collapsed="1">
+      <c r="O29" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q29" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" collapsed="1">
       <c r="A30" s="21" t="s">
         <v>39</v>
       </c>
@@ -2602,8 +2908,17 @@
       <c r="N30" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" collapsed="1">
+      <c r="O30" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q30" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" collapsed="1">
       <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
@@ -2637,8 +2952,17 @@
       <c r="N31" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" collapsed="1">
+      <c r="O31" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q31" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" collapsed="1">
       <c r="A32" s="21" t="s">
         <v>43</v>
       </c>
@@ -2672,8 +2996,17 @@
       <c r="N32" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" collapsed="1">
+      <c r="O32" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q32" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" collapsed="1">
       <c r="A33" s="21" t="s">
         <v>45</v>
       </c>
@@ -2707,8 +3040,17 @@
       <c r="N33" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" collapsed="1">
+      <c r="O33" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q33" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" collapsed="1">
       <c r="A34" s="21" t="s">
         <v>47</v>
       </c>
@@ -2742,8 +3084,17 @@
       <c r="N34" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" collapsed="1">
+      <c r="O34" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q34" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" collapsed="1">
       <c r="A35" s="21" t="s">
         <v>49</v>
       </c>
@@ -2777,8 +3128,17 @@
       <c r="N35" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" collapsed="1">
+      <c r="O35" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q35" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" collapsed="1">
       <c r="A36" s="21" t="s">
         <v>51</v>
       </c>
@@ -2812,8 +3172,17 @@
       <c r="N36" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" collapsed="1">
+      <c r="O36" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q36" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" collapsed="1">
       <c r="A37" s="21" t="s">
         <v>53</v>
       </c>
@@ -2847,8 +3216,17 @@
       <c r="N37" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" collapsed="1">
+      <c r="O37" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q37" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" collapsed="1">
       <c r="A38" s="21" t="s">
         <v>55</v>
       </c>
@@ -2882,8 +3260,17 @@
       <c r="N38" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" collapsed="1">
+      <c r="O38" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q38" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" collapsed="1">
       <c r="A39" s="21" t="s">
         <v>57</v>
       </c>
@@ -2917,8 +3304,17 @@
       <c r="N39" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" collapsed="1">
+      <c r="O39" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q39" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" collapsed="1">
       <c r="A40" s="21" t="s">
         <v>59</v>
       </c>
@@ -2952,8 +3348,17 @@
       <c r="N40" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" collapsed="1">
+      <c r="O40" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q40" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" collapsed="1">
       <c r="A41" s="21" t="s">
         <v>61</v>
       </c>
@@ -2987,8 +3392,17 @@
       <c r="N41" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" collapsed="1">
+      <c r="O41" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q41" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" collapsed="1">
       <c r="A42" s="21" t="s">
         <v>63</v>
       </c>
@@ -3022,8 +3436,17 @@
       <c r="N42" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" collapsed="1">
+      <c r="O42" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q42" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" collapsed="1">
       <c r="A43" s="21" t="s">
         <v>65</v>
       </c>
@@ -3057,8 +3480,17 @@
       <c r="N43" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" collapsed="1">
+      <c r="O43" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q43" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" collapsed="1">
       <c r="A44" s="21" t="s">
         <v>67</v>
       </c>
@@ -3092,8 +3524,17 @@
       <c r="N44" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" collapsed="1">
+      <c r="O44" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q44" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" collapsed="1">
       <c r="A45" s="21" t="s">
         <v>69</v>
       </c>
@@ -3127,8 +3568,17 @@
       <c r="N45" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" collapsed="1">
+      <c r="O45" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P45" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q45" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" collapsed="1">
       <c r="A46" s="21" t="s">
         <v>71</v>
       </c>
@@ -3162,8 +3612,17 @@
       <c r="N46" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" collapsed="1">
+      <c r="O46" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q46" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" collapsed="1">
       <c r="A47" s="21" t="s">
         <v>73</v>
       </c>
@@ -3191,13 +3650,22 @@
       <c r="J47" s="18" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" collapsed="1"/>
+      <c r="O47" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q47" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" collapsed="1"/>
   </sheetData>
-  <autoFilter ref="A1:T1">
-    <filterColumn colId="9"/>
-    <filterColumn colId="10"/>
-    <filterColumn colId="11"/>
+  <autoFilter ref="A1:W1">
+    <sortState ref="A2:W47">
+      <sortCondition ref="D1"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -3299,14 +3767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="P1" sqref="P1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="103.5703125" style="29" customWidth="1"/>
     <col min="2" max="3" width="23.28515625" style="31" customWidth="1"/>
@@ -4504,10 +4972,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S1">
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
     <sortState ref="A2:U20">
       <sortCondition ref="A1"/>
     </sortState>
